--- a/unpackaged/adapted_architectures/adapted_architectures (1).xlsx
+++ b/unpackaged/adapted_architectures/adapted_architectures (1).xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,16 +434,16 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
         <v>65</v>
-      </c>
-      <c r="C3">
-        <v>62</v>
       </c>
       <c r="D3">
         <v>67</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>58</v>
@@ -454,16 +454,16 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>68</v>
+      </c>
+      <c r="C4">
         <v>66</v>
-      </c>
-      <c r="C4">
-        <v>60</v>
       </c>
       <c r="D4">
         <v>70</v>
       </c>
       <c r="E4">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4">
         <v>52</v>
@@ -474,16 +474,16 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5">
         <v>67</v>
       </c>
-      <c r="C5">
-        <v>58</v>
-      </c>
       <c r="D5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>47</v>
@@ -494,119 +494,19 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6">
         <v>68</v>
       </c>
-      <c r="C6">
-        <v>56</v>
-      </c>
       <c r="D6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F6">
         <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>69</v>
-      </c>
-      <c r="C7">
-        <v>54</v>
-      </c>
-      <c r="D7">
-        <v>79</v>
-      </c>
-      <c r="E7">
-        <v>64</v>
-      </c>
-      <c r="F7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>70</v>
-      </c>
-      <c r="C8">
-        <v>53</v>
-      </c>
-      <c r="D8">
-        <v>82</v>
-      </c>
-      <c r="E8">
-        <v>64</v>
-      </c>
-      <c r="F8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>71</v>
-      </c>
-      <c r="C9">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>85</v>
-      </c>
-      <c r="E9">
-        <v>64</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>72</v>
-      </c>
-      <c r="C10">
-        <v>51</v>
-      </c>
-      <c r="D10">
-        <v>88</v>
-      </c>
-      <c r="E10">
-        <v>64</v>
-      </c>
-      <c r="F10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>73</v>
-      </c>
-      <c r="C11">
-        <v>50</v>
-      </c>
-      <c r="D11">
-        <v>92</v>
-      </c>
-      <c r="E11">
-        <v>64</v>
-      </c>
-      <c r="F11">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
